--- a/Riesgo de mercado/Repaso.xlsx
+++ b/Riesgo de mercado/Repaso.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegolozoya/Documents/ITESO/Semestre 6/Administración de riesgos/Riesgo de mercado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EEA6F0-4E16-DD4E-9014-45A93314BB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208F3604-3B93-E74A-8953-16276E5764F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29400" yWindow="-1780" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Equities" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4805" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4828" uniqueCount="1237">
   <si>
     <t>ITOT</t>
   </si>
@@ -3752,6 +3752,12 @@
   </si>
   <si>
     <t>4.- Escenario hipotético: Banxico sube las tasas 32 basis ese mismo día</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Valor del bono +32 basis</t>
   </si>
 </sst>
 </file>
@@ -3908,7 +3914,7 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4033,15 +4039,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -4066,6 +4063,16 @@
     <xf numFmtId="43" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4236,8 +4243,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>250198</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1080582</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>143207</xdr:rowOff>
     </xdr:to>
@@ -4281,7 +4288,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>166724</xdr:colOff>
+      <xdr:colOff>166725</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -4325,7 +4332,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>320368</xdr:colOff>
+      <xdr:colOff>320369</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -4904,7 +4911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E237"/>
   <sheetViews>
-    <sheetView topLeftCell="L15" zoomScale="237" workbookViewId="0"/>
+    <sheetView topLeftCell="J9" zoomScale="237" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8950,8 +8957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1516EC22-7CBD-674E-9A2A-E8B714A31F08}">
   <dimension ref="A1:S511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8959,6 +8966,7 @@
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="12" max="12" width="18.83203125" customWidth="1"/>
     <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9612,6 +9620,12 @@
       <c r="J21" s="5" t="s">
         <v>99</v>
       </c>
+      <c r="L21" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M21" s="3">
+        <v>12205</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
@@ -9645,10 +9659,10 @@
         <v>103</v>
       </c>
       <c r="L22" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="M22" s="3">
-        <v>48730</v>
+        <v>45342</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -9683,10 +9697,10 @@
         <v>106</v>
       </c>
       <c r="L23" t="s">
-        <v>1214</v>
-      </c>
-      <c r="M23" s="3">
-        <v>45342</v>
+        <v>1215</v>
+      </c>
+      <c r="M23" s="44">
+        <v>0.10829999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -9721,10 +9735,13 @@
         <v>93</v>
       </c>
       <c r="L24" t="s">
-        <v>1215</v>
-      </c>
-      <c r="M24" s="47">
-        <v>0.10829999999999999</v>
+        <v>1216</v>
+      </c>
+      <c r="M24">
+        <v>400</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -9758,12 +9775,6 @@
       <c r="J25" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="L25" t="s">
-        <v>1216</v>
-      </c>
-      <c r="M25" t="s">
-        <v>1231</v>
-      </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
@@ -9796,6 +9807,18 @@
       <c r="J26" s="10" t="s">
         <v>117</v>
       </c>
+      <c r="L26" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M26" s="45">
+        <v>61219000</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1218</v>
+      </c>
+      <c r="P26" s="53">
+        <v>89.646600000000007</v>
+      </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
@@ -9829,16 +9852,16 @@
         <v>120</v>
       </c>
       <c r="L27" t="s">
-        <v>1217</v>
-      </c>
-      <c r="M27" s="48">
-        <v>61219000</v>
+        <v>1219</v>
+      </c>
+      <c r="M27" s="45">
+        <v>61487000</v>
       </c>
       <c r="O27" t="s">
-        <v>1218</v>
-      </c>
-      <c r="P27" s="56">
-        <v>89.617999999999995</v>
+        <v>1220</v>
+      </c>
+      <c r="P27" s="53">
+        <v>89.589299999999994</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -9872,18 +9895,7 @@
       <c r="J28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L28" t="s">
-        <v>1219</v>
-      </c>
-      <c r="M28" s="48">
-        <v>61487000</v>
-      </c>
-      <c r="O28" t="s">
-        <v>1220</v>
-      </c>
-      <c r="P28" s="56">
-        <v>89.560699999999997</v>
-      </c>
+      <c r="M28" s="46"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
@@ -9916,7 +9928,20 @@
       <c r="J29" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="M29" s="49"/>
+      <c r="L29" s="54" t="s">
+        <v>1221</v>
+      </c>
+      <c r="M29" s="55">
+        <f>ABS(M27-M26)</f>
+        <v>268000</v>
+      </c>
+      <c r="O29" s="54" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P29" s="56">
+        <f>ABS(P26-P27)</f>
+        <v>5.7300000000012119E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
@@ -9949,19 +9974,11 @@
       <c r="J30" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="L30" s="57" t="s">
-        <v>1221</v>
-      </c>
-      <c r="M30" s="58">
-        <f>ABS(M28-M27)</f>
-        <v>268000</v>
-      </c>
-      <c r="O30" s="57" t="s">
-        <v>1222</v>
-      </c>
-      <c r="P30" s="59">
-        <f>ABS(P27-P28)</f>
-        <v>5.7299999999997908E-2</v>
+      <c r="L30" t="s">
+        <v>1223</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -9996,10 +10013,10 @@
         <v>131</v>
       </c>
       <c r="L31" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="O31" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -10033,12 +10050,6 @@
       <c r="J32" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L32" t="s">
-        <v>1225</v>
-      </c>
-      <c r="O32" t="s">
-        <v>1225</v>
-      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
@@ -10071,6 +10082,18 @@
       <c r="J33" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="L33" s="54" t="s">
+        <v>1226</v>
+      </c>
+      <c r="M33" s="57">
+        <f>M29/P29</f>
+        <v>4677137.8708541589</v>
+      </c>
+      <c r="N33" s="54" t="s">
+        <v>1232</v>
+      </c>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
@@ -10103,18 +10126,6 @@
       <c r="J34" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="L34" s="57" t="s">
-        <v>1226</v>
-      </c>
-      <c r="M34" s="60">
-        <f>M30/P30</f>
-        <v>4677137.8708553193</v>
-      </c>
-      <c r="N34" s="57" t="s">
-        <v>1232</v>
-      </c>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
@@ -10147,6 +10158,9 @@
       <c r="J35" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="L35" t="s">
+        <v>1234</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
@@ -10179,9 +10193,6 @@
       <c r="J36" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="L36" t="s">
-        <v>1234</v>
-      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
@@ -10214,6 +10225,18 @@
       <c r="J37" s="5" t="s">
         <v>149</v>
       </c>
+      <c r="L37" t="s">
+        <v>1233</v>
+      </c>
+      <c r="M37" s="63">
+        <v>69780000</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1236</v>
+      </c>
+      <c r="P37" s="53">
+        <v>87.836200000000005</v>
+      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
@@ -10246,18 +10269,7 @@
       <c r="J38" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="L38" t="s">
-        <v>1233</v>
-      </c>
-      <c r="M38" s="48">
-        <v>69780000</v>
-      </c>
-      <c r="O38" t="s">
-        <v>1227</v>
-      </c>
-      <c r="P38" s="56">
-        <v>87.808300000000003</v>
-      </c>
+      <c r="M38" s="47"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
@@ -10290,7 +10302,20 @@
       <c r="J39" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="M39" s="50"/>
+      <c r="L39" s="54" t="s">
+        <v>1229</v>
+      </c>
+      <c r="M39" s="59">
+        <f>M37-M26</f>
+        <v>8561000</v>
+      </c>
+      <c r="O39" s="54" t="s">
+        <v>1228</v>
+      </c>
+      <c r="P39" s="59">
+        <f>(P37-P26)*M33</f>
+        <v>-8467490.4013943747</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
@@ -10323,20 +10348,6 @@
       <c r="J40" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L40" s="57" t="s">
-        <v>1229</v>
-      </c>
-      <c r="M40" s="62">
-        <f>M38-M27</f>
-        <v>8561000</v>
-      </c>
-      <c r="O40" s="57" t="s">
-        <v>1228</v>
-      </c>
-      <c r="P40" s="62">
-        <f>(P38-P27)*M34</f>
-        <v>-8464216.4048868362</v>
-      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
@@ -10369,6 +10380,13 @@
       <c r="J41" s="5" t="s">
         <v>103</v>
       </c>
+      <c r="L41" t="s">
+        <v>1230</v>
+      </c>
+      <c r="M41" s="47">
+        <f>M39+P39</f>
+        <v>93509.598605625331</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
@@ -10401,13 +10419,6 @@
       <c r="J42" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="L42" t="s">
-        <v>1230</v>
-      </c>
-      <c r="M42" s="50">
-        <f>M40+P40</f>
-        <v>96783.595113163814</v>
-      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
@@ -11113,7 +11124,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
         <v>228</v>
       </c>
@@ -11145,7 +11156,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>231</v>
       </c>
@@ -11177,7 +11188,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="26">
         <v>2025</v>
       </c>
@@ -11185,7 +11196,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>234</v>
       </c>
@@ -11217,7 +11228,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>238</v>
       </c>
@@ -11249,7 +11260,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>241</v>
       </c>
@@ -11281,7 +11292,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>241</v>
       </c>
@@ -11313,7 +11324,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>246</v>
       </c>
@@ -11345,7 +11356,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>250</v>
       </c>
@@ -11376,8 +11387,14 @@
       <c r="J73" s="5" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L73" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M73" s="3">
+        <v>48730</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>254</v>
       </c>
@@ -11408,8 +11425,14 @@
       <c r="J74" s="10" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L74" t="s">
+        <v>1214</v>
+      </c>
+      <c r="M74" s="3">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>257</v>
       </c>
@@ -11440,8 +11463,14 @@
       <c r="J75" s="5" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L75" t="s">
+        <v>1215</v>
+      </c>
+      <c r="M75" s="44">
+        <v>0.10829999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>261</v>
       </c>
@@ -11472,8 +11501,14 @@
       <c r="J76" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L76" t="s">
+        <v>1216</v>
+      </c>
+      <c r="M76" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>264</v>
       </c>
@@ -11505,7 +11540,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>267</v>
       </c>
@@ -11536,8 +11571,20 @@
       <c r="J78" s="10" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L78" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M78" s="45">
+        <v>61219000</v>
+      </c>
+      <c r="O78" t="s">
+        <v>1218</v>
+      </c>
+      <c r="P78" s="53">
+        <v>89.617999999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>272</v>
       </c>
@@ -11568,8 +11615,20 @@
       <c r="J79" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L79" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M79" s="45">
+        <v>61487000</v>
+      </c>
+      <c r="O79" t="s">
+        <v>1220</v>
+      </c>
+      <c r="P79" s="53">
+        <v>89.560699999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>276</v>
       </c>
@@ -11600,8 +11659,9 @@
       <c r="J80" s="10" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M80" s="46"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>280</v>
       </c>
@@ -11632,8 +11692,22 @@
       <c r="J81" s="5" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L81" s="54" t="s">
+        <v>1221</v>
+      </c>
+      <c r="M81" s="55">
+        <f>ABS(M79-M78)</f>
+        <v>268000</v>
+      </c>
+      <c r="O81" s="54" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P81" s="56">
+        <f>ABS(P78-P79)</f>
+        <v>5.7299999999997908E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>284</v>
       </c>
@@ -11664,8 +11738,14 @@
       <c r="J82" s="10" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L82" t="s">
+        <v>1223</v>
+      </c>
+      <c r="O82" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>284</v>
       </c>
@@ -11696,8 +11776,14 @@
       <c r="J83" s="5" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L83" t="s">
+        <v>1225</v>
+      </c>
+      <c r="O83" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>289</v>
       </c>
@@ -11729,7 +11815,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>293</v>
       </c>
@@ -11760,8 +11846,20 @@
       <c r="J85" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L85" s="54" t="s">
+        <v>1226</v>
+      </c>
+      <c r="M85" s="57">
+        <f>M81/P81</f>
+        <v>4677137.8708553193</v>
+      </c>
+      <c r="N85" s="54" t="s">
+        <v>1232</v>
+      </c>
+      <c r="O85" s="58"/>
+      <c r="P85" s="58"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>293</v>
       </c>
@@ -11793,7 +11891,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
         <v>298</v>
       </c>
@@ -11824,8 +11922,11 @@
       <c r="J87" s="5" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L87" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>304</v>
       </c>
@@ -11857,7 +11958,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>307</v>
       </c>
@@ -11888,8 +11989,20 @@
       <c r="J89" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L89" t="s">
+        <v>1233</v>
+      </c>
+      <c r="M89" s="45">
+        <v>69780000</v>
+      </c>
+      <c r="O89" t="s">
+        <v>1227</v>
+      </c>
+      <c r="P89" s="53">
+        <v>87.808300000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>310</v>
       </c>
@@ -11920,8 +12033,9 @@
       <c r="J90" s="10" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M90" s="47"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>315</v>
       </c>
@@ -11952,8 +12066,22 @@
       <c r="J91" s="5" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L91" s="54" t="s">
+        <v>1229</v>
+      </c>
+      <c r="M91" s="59">
+        <f>M89-M78</f>
+        <v>8561000</v>
+      </c>
+      <c r="O91" s="54" t="s">
+        <v>1228</v>
+      </c>
+      <c r="P91" s="59">
+        <f>(P89-P78)*M85</f>
+        <v>-8464216.4048868362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>319</v>
       </c>
@@ -11985,7 +12113,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>319</v>
       </c>
@@ -12016,8 +12144,15 @@
       <c r="J93" s="5" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L93" t="s">
+        <v>1230</v>
+      </c>
+      <c r="M93" s="47">
+        <f>M91+P91</f>
+        <v>96783.595113163814</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>327</v>
       </c>
@@ -12049,7 +12184,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>331</v>
       </c>
@@ -12081,7 +12216,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>333</v>
       </c>
@@ -15025,35 +15160,35 @@
         <v>654</v>
       </c>
     </row>
-    <row r="194" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="51" t="s">
+    <row r="194" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="48" t="s">
         <v>655</v>
       </c>
-      <c r="B194" s="52" t="s">
+      <c r="B194" s="49" t="s">
         <v>656</v>
       </c>
-      <c r="C194" s="52" t="s">
+      <c r="C194" s="49" t="s">
         <v>657</v>
       </c>
-      <c r="D194" s="52" t="s">
+      <c r="D194" s="49" t="s">
         <v>658</v>
       </c>
-      <c r="E194" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="F194" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="G194" s="52" t="s">
+      <c r="E194" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F194" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G194" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H194" s="53">
+      <c r="H194" s="50">
         <v>89.492000000000004</v>
       </c>
-      <c r="I194" s="54">
+      <c r="I194" s="51">
         <v>9.1850000000000005</v>
       </c>
-      <c r="J194" s="52" t="s">
+      <c r="J194" s="49" t="s">
         <v>659</v>
       </c>
     </row>
@@ -28361,33 +28496,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="G4" s="45" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="G4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -28494,32 +28629,32 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="G9" s="46" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="G9" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="G11" s="45" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="G11" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
